--- a/src/main/resources/data/Segment 2026.xlsx
+++ b/src/main/resources/data/Segment 2026.xlsx
@@ -16,6 +16,7 @@
     <sheet name="02-03-08" sheetId="2" r:id="rId2"/>
     <sheet name="02-03-09" sheetId="3" r:id="rId3"/>
     <sheet name="02-03-PS" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'02-03-01'!$A$2:$H$179</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="830">
   <si>
     <t>Id</t>
   </si>
@@ -2280,20 +2281,268 @@
   </si>
   <si>
     <t>Mainline Block Valve Station (MLBV Station)</t>
+  </si>
+  <si>
+    <t>0+000 / 150</t>
+  </si>
+  <si>
+    <t>44+200 / 150</t>
+  </si>
+  <si>
+    <t>72+000/ 210</t>
+  </si>
+  <si>
+    <t>145+473 / 295</t>
+  </si>
+  <si>
+    <t>184+200 / 365</t>
+  </si>
+  <si>
+    <t>236+475 / 562</t>
+  </si>
+  <si>
+    <t>256+000 / 631</t>
+  </si>
+  <si>
+    <t>328+047 / 762</t>
+  </si>
+  <si>
+    <t>466+900 / 1275</t>
+  </si>
+  <si>
+    <t>489+915 / 1083</t>
+  </si>
+  <si>
+    <t>533+940 / 970</t>
+  </si>
+  <si>
+    <t>534+060 /970</t>
+  </si>
+  <si>
+    <t>552+122 /1100</t>
+  </si>
+  <si>
+    <t>611+375 / 1100</t>
+  </si>
+  <si>
+    <t>648+000 / 758</t>
+  </si>
+  <si>
+    <t>669+302 / 620</t>
+  </si>
+  <si>
+    <t>701+544 / 270</t>
+  </si>
+  <si>
+    <t>715+885 / 87</t>
+  </si>
+  <si>
+    <t>758+279 / 25</t>
+  </si>
+  <si>
+    <t>781+594 / 08</t>
+  </si>
+  <si>
+    <t>781+720 / 08</t>
+  </si>
+  <si>
+    <t>HMD / OUARGLA</t>
+  </si>
+  <si>
+    <t>Ain Beida / OUARGLA</t>
+  </si>
+  <si>
+    <t>OUARGLA</t>
+  </si>
+  <si>
+    <t>Ouargla / OUARGLA</t>
+  </si>
+  <si>
+    <t>Zelfana / GHARDAIA</t>
+  </si>
+  <si>
+    <t>Ghardaia / GHARDAIA</t>
+  </si>
+  <si>
+    <t>Daia Ben Dahoua / GHARDAIA</t>
+  </si>
+  <si>
+    <t>Hassi / R'mel / LAGHOUAT</t>
+  </si>
+  <si>
+    <t>Ain Hamra / LAGHOUAT</t>
+  </si>
+  <si>
+    <t>Djelfa / DJELFA</t>
+  </si>
+  <si>
+    <t>Faidja / TIARET</t>
+  </si>
+  <si>
+    <t>Ain Dheb / TIARET</t>
+  </si>
+  <si>
+    <t>Sougueur / TIARET</t>
+  </si>
+  <si>
+    <t>Guertoufa / TIARET</t>
+  </si>
+  <si>
+    <t>Rahouia / TIARET</t>
+  </si>
+  <si>
+    <t>Zemmoura / RELIZANE</t>
+  </si>
+  <si>
+    <t>Bormadia / RELIZANE</t>
+  </si>
+  <si>
+    <t>El Hassiane / MOSTAGANEM</t>
+  </si>
+  <si>
+    <t>Marsa el hadjej / ORAN</t>
+  </si>
+  <si>
+    <t>22+000 / 142</t>
+  </si>
+  <si>
+    <t>43+900 / 149</t>
+  </si>
+  <si>
+    <t>73+000 / 186</t>
+  </si>
+  <si>
+    <t>102+000 / 223</t>
+  </si>
+  <si>
+    <t>150+000 / 300</t>
+  </si>
+  <si>
+    <t>180+000 / 350</t>
+  </si>
+  <si>
+    <t>210+000 / 467</t>
+  </si>
+  <si>
+    <t>236+500 / 566</t>
+  </si>
+  <si>
+    <t>265+750 / 688</t>
+  </si>
+  <si>
+    <t>295+500 / 756</t>
+  </si>
+  <si>
+    <t>330+000 / 766</t>
+  </si>
+  <si>
+    <t>360+000 / 848</t>
+  </si>
+  <si>
+    <t>390+000 / 790</t>
+  </si>
+  <si>
+    <t>445+000 / 1050</t>
+  </si>
+  <si>
+    <t>475+000 / 1215</t>
+  </si>
+  <si>
+    <t>505+000 / 986</t>
+  </si>
+  <si>
+    <t>564+500 / 1132</t>
+  </si>
+  <si>
+    <t>594+000 / 1225</t>
+  </si>
+  <si>
+    <t>624+000 / 997</t>
+  </si>
+  <si>
+    <t>654+000 / 599</t>
+  </si>
+  <si>
+    <t>684+000 / 553</t>
+  </si>
+  <si>
+    <t>714+000 / 146</t>
+  </si>
+  <si>
+    <t>744+000 / 150</t>
+  </si>
+  <si>
+    <t>774+000 / 26</t>
+  </si>
+  <si>
+    <t>804+000 / 196</t>
+  </si>
+  <si>
+    <t>Hassi Ben Abdellah /OUARGLA</t>
+  </si>
+  <si>
+    <t>Ain Beida /OUARGLA</t>
+  </si>
+  <si>
+    <t>Zelfana /GHARDAIA</t>
+  </si>
+  <si>
+    <t>Al Atteuf / GHARDAIA</t>
+  </si>
+  <si>
+    <t>Ben Dhaou / GHARDAIA</t>
+  </si>
+  <si>
+    <t>Hassi R’mel / LAGHOUAT</t>
+  </si>
+  <si>
+    <t>Bennaceur Benchohra / LAGHOUAT</t>
+  </si>
+  <si>
+    <t>Laghouat / LAGHOUAT</t>
+  </si>
+  <si>
+    <t>LAGHOUAT</t>
+  </si>
+  <si>
+    <t>Aflou / LAGHOUAT</t>
+  </si>
+  <si>
+    <t>O.Touil / DJELFA</t>
+  </si>
+  <si>
+    <t>Nador / TIARET</t>
+  </si>
+  <si>
+    <t>Tiaret / TIARET</t>
+  </si>
+  <si>
+    <t>Temda / TIARET</t>
+  </si>
+  <si>
+    <t>Kenenda / RELIZANE</t>
+  </si>
+  <si>
+    <t>Yellel / RELIZANE</t>
+  </si>
+  <si>
+    <t>Granine / ORAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="0000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="[$-12C0C]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2313,6 +2562,13 @@
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2403,10 +2659,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2558,8 +2815,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -18947,10 +19208,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:N232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18960,12 +19221,13 @@
     <col min="3" max="3" width="75.7109375" style="2" customWidth="1"/>
     <col min="4" max="5" width="15.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.85546875" style="2"/>
+    <col min="7" max="12" width="15.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18991,10 +19253,17 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19019,654 +19288,1669 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="52"/>
+      <c r="C3" s="52" t="str">
+        <f>CONCATENATE("Poste de Sectionnement n°",TEXT(A3,"00"))</f>
+        <v>Poste de Sectionnement n°01</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
-      <c r="I3" s="52" t="str">
-        <f t="shared" ref="I3:I14" si="0">CONCATENATE("(",A3,",'",B3,"','",C3,"','",TEXT(D3,"aaaa-mm-jj"),"','",TEXT(E3,"aaaa-mm-jj"),"',",F3,",",G3,",",H3,"),")</f>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="I3" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>748</v>
+      </c>
+      <c r="K3" s="53">
+        <f>VALUE(RIGHT(J3,LEN(J3)-SEARCH("/",J3)))</f>
+        <v>150</v>
+      </c>
+      <c r="L3" s="44">
+        <f>VALUE(SUBSTITUTE(LEFT(J3,SEARCH("/",J3)-1),"+",","))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="N3" s="52" t="str">
+        <f t="shared" ref="N3:N14" si="0">CONCATENATE("(",A3,",'",B3,"','",C3,"','",TEXT(D3,"aaaa-mm-jj"),"','",TEXT(E3,"aaaa-mm-jj"),"',",F3,",",G3,",",H3,"),")</f>
+        <v>(1,'','Poste de Sectionnement n°01','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>2</v>
+      </c>
       <c r="B4" s="40"/>
-      <c r="C4" s="52"/>
+      <c r="C4" s="52" t="str">
+        <f t="shared" ref="C4:C23" si="1">CONCATENATE("Poste de Sectionnement n°",TEXT(A4,"00"))</f>
+        <v>Poste de Sectionnement n°02</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
-      <c r="I4" s="52" t="str">
+      <c r="I4" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="K4" s="53">
+        <f t="shared" ref="K4:K23" si="2">VALUE(RIGHT(J4,LEN(J4)-SEARCH("/",J4)))</f>
+        <v>150</v>
+      </c>
+      <c r="L4" s="44">
+        <f t="shared" ref="L4:L23" si="3">VALUE(SUBSTITUTE(LEFT(J4,SEARCH("/",J4)-1),"+",","))</f>
+        <v>44.2</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="N4" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+        <v>(2,'','Poste de Sectionnement n°02','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>3</v>
+      </c>
       <c r="B5" s="40"/>
-      <c r="C5" s="52" t="s">
-        <v>747</v>
+      <c r="C5" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°03</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
-      <c r="I5" s="52" t="str">
+      <c r="I5" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>750</v>
+      </c>
+      <c r="K5" s="53">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="L5" s="44">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="N5" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>(,'','Mainline Block Valve Station (MLBV Station)','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+        <v>(3,'','Poste de Sectionnement n°03','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>4</v>
+      </c>
       <c r="B6" s="40"/>
-      <c r="C6" s="52"/>
+      <c r="C6" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°04</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="52" t="str">
+      <c r="I6" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>751</v>
+      </c>
+      <c r="K6" s="53">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="L6" s="44">
+        <f t="shared" si="3"/>
+        <v>145.47300000000001</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="N6" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+        <v>(4,'','Poste de Sectionnement n°04','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>5</v>
+      </c>
       <c r="B7" s="40"/>
-      <c r="C7" s="52"/>
+      <c r="C7" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°05</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="52" t="str">
+      <c r="I7" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>752</v>
+      </c>
+      <c r="K7" s="53">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="L7" s="44">
+        <f t="shared" si="3"/>
+        <v>184.2</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>773</v>
+      </c>
+      <c r="N7" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+        <v>(5,'','Poste de Sectionnement n°05','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>6</v>
+      </c>
       <c r="B8" s="40"/>
-      <c r="C8" s="52"/>
+      <c r="C8" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°06</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="52" t="str">
+      <c r="I8" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="K8" s="53">
+        <f t="shared" si="2"/>
+        <v>562</v>
+      </c>
+      <c r="L8" s="44">
+        <f t="shared" si="3"/>
+        <v>236.47499999999999</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="N8" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+        <v>(6,'','Poste de Sectionnement n°06','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>7</v>
+      </c>
       <c r="B9" s="40"/>
-      <c r="C9" s="52"/>
+      <c r="C9" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°07</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="52" t="str">
+      <c r="I9" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>754</v>
+      </c>
+      <c r="K9" s="53">
+        <f t="shared" si="2"/>
+        <v>631</v>
+      </c>
+      <c r="L9" s="44">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="N9" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+        <v>(7,'','Poste de Sectionnement n°07','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>8</v>
+      </c>
       <c r="B10" s="40"/>
-      <c r="C10" s="52"/>
+      <c r="C10" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°08</v>
+      </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="52" t="str">
+      <c r="I10" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>755</v>
+      </c>
+      <c r="K10" s="53">
+        <f t="shared" si="2"/>
+        <v>762</v>
+      </c>
+      <c r="L10" s="44">
+        <f t="shared" si="3"/>
+        <v>328.04700000000003</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="N10" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+        <v>(8,'','Poste de Sectionnement n°08','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>9</v>
+      </c>
       <c r="B11" s="40"/>
-      <c r="C11" s="52"/>
+      <c r="C11" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°09</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="52" t="str">
+      <c r="I11" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="K11" s="53">
+        <f t="shared" si="2"/>
+        <v>1275</v>
+      </c>
+      <c r="L11" s="44">
+        <f t="shared" si="3"/>
+        <v>466.9</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>777</v>
+      </c>
+      <c r="N11" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+        <v>(9,'','Poste de Sectionnement n°09','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>10</v>
+      </c>
       <c r="B12" s="40"/>
-      <c r="C12" s="52"/>
+      <c r="C12" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°10</v>
+      </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="52" t="str">
+      <c r="I12" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="K12" s="53">
+        <f t="shared" si="2"/>
+        <v>1083</v>
+      </c>
+      <c r="L12" s="44">
+        <f t="shared" si="3"/>
+        <v>489.91500000000002</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="N12" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+        <v>(10,'','Poste de Sectionnement n°10','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>11</v>
+      </c>
       <c r="B13" s="40"/>
-      <c r="C13" s="52"/>
+      <c r="C13" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°11</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="52" t="str">
+      <c r="I13" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="K13" s="53">
+        <f t="shared" si="2"/>
+        <v>970</v>
+      </c>
+      <c r="L13" s="44">
+        <f t="shared" si="3"/>
+        <v>533.94000000000005</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="N13" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+        <v>(11,'','Poste de Sectionnement n°11','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>12</v>
+      </c>
       <c r="B14" s="40"/>
-      <c r="C14" s="52"/>
+      <c r="C14" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°12</v>
+      </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="52" t="str">
+      <c r="I14" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>759</v>
+      </c>
+      <c r="K14" s="53">
+        <f t="shared" si="2"/>
+        <v>970</v>
+      </c>
+      <c r="L14" s="44">
+        <f t="shared" si="3"/>
+        <v>534.05999999999995</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="N14" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+        <v>(12,'','Poste de Sectionnement n°12','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>13</v>
+      </c>
       <c r="B15" s="40"/>
-      <c r="C15" s="52"/>
+      <c r="C15" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°13</v>
+      </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="I15" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="K15" s="53">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="L15" s="44">
+        <f t="shared" si="3"/>
+        <v>552.12199999999996</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="N15" s="52"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>14</v>
+      </c>
       <c r="B16" s="40"/>
-      <c r="C16" s="52"/>
+      <c r="C16" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°14</v>
+      </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="52" t="str">
-        <f t="shared" ref="I16:I79" si="1">CONCATENATE("(",A16,",'",B16,"','",C16,"','",TEXT(D16,"aaaa-mm-jj"),"','",TEXT(E16,"aaaa-mm-jj"),"',",F16,",",G16,",",H16,"),")</f>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="I16" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>761</v>
+      </c>
+      <c r="K16" s="53">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="L16" s="44">
+        <f t="shared" si="3"/>
+        <v>611.375</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>781</v>
+      </c>
+      <c r="N16" s="52" t="str">
+        <f t="shared" ref="N16:N79" si="4">CONCATENATE("(",A16,",'",B16,"','",C16,"','",TEXT(D16,"aaaa-mm-jj"),"','",TEXT(E16,"aaaa-mm-jj"),"',",F16,",",G16,",",H16,"),")</f>
+        <v>(14,'','Poste de Sectionnement n°14','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>15</v>
+      </c>
       <c r="B17" s="40"/>
-      <c r="C17" s="52"/>
+      <c r="C17" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>Poste de Sectionnement n°15</v>
+      </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="52" t="str">
+      <c r="I17" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>762</v>
+      </c>
+      <c r="K17" s="53">
+        <f t="shared" si="2"/>
+        <v>758</v>
+      </c>
+      <c r="L17" s="44">
+        <f t="shared" si="3"/>
+        <v>648</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>782</v>
+      </c>
+      <c r="N17" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(15,'','Poste de Sectionnement n°15','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>16</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="52"/>
+        <v>Poste de Sectionnement n°16</v>
+      </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="52" t="str">
+      <c r="I18" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="K18" s="53">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="L18" s="44">
+        <f t="shared" si="3"/>
+        <v>669.30200000000002</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>783</v>
+      </c>
+      <c r="N18" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(16,'','Poste de Sectionnement n°16','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>17</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="52"/>
+        <v>Poste de Sectionnement n°17</v>
+      </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="52" t="str">
+      <c r="I19" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="K19" s="53">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="L19" s="44">
+        <f t="shared" si="3"/>
+        <v>701.54399999999998</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>784</v>
+      </c>
+      <c r="N19" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(17,'','Poste de Sectionnement n°17','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>18</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="52"/>
+        <v>Poste de Sectionnement n°18</v>
+      </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="52" t="str">
+      <c r="I20" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>765</v>
+      </c>
+      <c r="K20" s="53">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="L20" s="44">
+        <f t="shared" si="3"/>
+        <v>715.88499999999999</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>785</v>
+      </c>
+      <c r="N20" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(18,'','Poste de Sectionnement n°18','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>19</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="52"/>
+        <v>Poste de Sectionnement n°19</v>
+      </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="52" t="str">
+      <c r="I21" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="K21" s="53">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L21" s="44">
+        <f t="shared" si="3"/>
+        <v>758.279</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>786</v>
+      </c>
+      <c r="N21" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(19,'','Poste de Sectionnement n°19','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>20</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="52"/>
+        <v>Poste de Sectionnement n°20</v>
+      </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="52" t="str">
+      <c r="I22" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="K22" s="53">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L22" s="44">
+        <f t="shared" si="3"/>
+        <v>781.59400000000005</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>786</v>
+      </c>
+      <c r="N22" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(20,'','Poste de Sectionnement n°20','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>21</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="52"/>
+        <v>Poste de Sectionnement n°21</v>
+      </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="I23" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="K23" s="53">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L23" s="44">
+        <f t="shared" si="3"/>
+        <v>781.72</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>787</v>
+      </c>
+      <c r="N23" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(21,'','Poste de Sectionnement n°21','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>1</v>
+      </c>
       <c r="B24" s="40"/>
-      <c r="C24" s="52"/>
+      <c r="C24" s="52" t="str">
+        <f>CONCATENATE("Poste de Sectionnement n°",TEXT(A24,"00"))</f>
+        <v>Poste de Sectionnement n°01</v>
+      </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="I24" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>788</v>
+      </c>
+      <c r="K24" s="53">
+        <f t="shared" ref="K24:K48" si="5">VALUE(RIGHT(J24,LEN(J24)-SEARCH("/",J24)))</f>
+        <v>142</v>
+      </c>
+      <c r="L24" s="44">
+        <f t="shared" ref="L24:L48" si="6">VALUE(SUBSTITUTE(LEFT(J24,SEARCH("/",J24)-1),"+",","))</f>
+        <v>22</v>
+      </c>
+      <c r="M24" s="42" t="s">
+        <v>813</v>
+      </c>
+      <c r="N24" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(1,'','Poste de Sectionnement n°01','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>2</v>
+      </c>
       <c r="B25" s="40"/>
-      <c r="C25" s="52"/>
+      <c r="C25" s="52" t="str">
+        <f t="shared" ref="C25:C48" si="7">CONCATENATE("Poste de Sectionnement n°",TEXT(A25,"00"))</f>
+        <v>Poste de Sectionnement n°02</v>
+      </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="I25" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>789</v>
+      </c>
+      <c r="K25" s="53">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="L25" s="44">
+        <f t="shared" si="6"/>
+        <v>43.9</v>
+      </c>
+      <c r="M25" s="42" t="s">
+        <v>814</v>
+      </c>
+      <c r="N25" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(2,'','Poste de Sectionnement n°02','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>3</v>
+      </c>
       <c r="B26" s="40"/>
-      <c r="C26" s="52"/>
+      <c r="C26" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°03</v>
+      </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="I26" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>790</v>
+      </c>
+      <c r="K26" s="53">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="L26" s="44">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="M26" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="N26" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(3,'','Poste de Sectionnement n°03','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>4</v>
+      </c>
       <c r="B27" s="40"/>
-      <c r="C27" s="52"/>
+      <c r="C27" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°04</v>
+      </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="I27" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>791</v>
+      </c>
+      <c r="K27" s="53">
+        <f t="shared" si="5"/>
+        <v>223</v>
+      </c>
+      <c r="L27" s="44">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="M27" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="N27" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(4,'','Poste de Sectionnement n°04','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>5</v>
+      </c>
       <c r="B28" s="40"/>
-      <c r="C28" s="52"/>
+      <c r="C28" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°05</v>
+      </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="I28" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>792</v>
+      </c>
+      <c r="K28" s="53">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="L28" s="44">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="N28" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(5,'','Poste de Sectionnement n°05','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>6</v>
+      </c>
       <c r="B29" s="40"/>
-      <c r="C29" s="52"/>
+      <c r="C29" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°06</v>
+      </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="I29" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>793</v>
+      </c>
+      <c r="K29" s="53">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="L29" s="44">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="M29" s="42" t="s">
+        <v>815</v>
+      </c>
+      <c r="N29" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(6,'','Poste de Sectionnement n°06','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <v>7</v>
+      </c>
       <c r="B30" s="40"/>
-      <c r="C30" s="52"/>
+      <c r="C30" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°07</v>
+      </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="I30" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>794</v>
+      </c>
+      <c r="K30" s="53">
+        <f t="shared" si="5"/>
+        <v>467</v>
+      </c>
+      <c r="L30" s="44">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>816</v>
+      </c>
+      <c r="N30" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(7,'','Poste de Sectionnement n°07','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <v>8</v>
+      </c>
       <c r="B31" s="40"/>
-      <c r="C31" s="52"/>
+      <c r="C31" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°08</v>
+      </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="I31" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J31" s="42" t="s">
+        <v>795</v>
+      </c>
+      <c r="K31" s="53">
+        <f t="shared" si="5"/>
+        <v>566</v>
+      </c>
+      <c r="L31" s="44">
+        <f t="shared" si="6"/>
+        <v>236.5</v>
+      </c>
+      <c r="M31" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="N31" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(8,'','Poste de Sectionnement n°08','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
+        <v>9</v>
+      </c>
       <c r="B32" s="40"/>
-      <c r="C32" s="52"/>
+      <c r="C32" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°09</v>
+      </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="I32" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J32" s="42" t="s">
+        <v>796</v>
+      </c>
+      <c r="K32" s="53">
+        <f t="shared" si="5"/>
+        <v>688</v>
+      </c>
+      <c r="L32" s="44">
+        <f t="shared" si="6"/>
+        <v>265.75</v>
+      </c>
+      <c r="M32" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="N32" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(9,'','Poste de Sectionnement n°09','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
+        <v>10</v>
+      </c>
       <c r="B33" s="40"/>
-      <c r="C33" s="52"/>
+      <c r="C33" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°10</v>
+      </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="I33" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J33" s="42" t="s">
+        <v>797</v>
+      </c>
+      <c r="K33" s="53">
+        <f t="shared" si="5"/>
+        <v>756</v>
+      </c>
+      <c r="L33" s="44">
+        <f t="shared" si="6"/>
+        <v>295.5</v>
+      </c>
+      <c r="M33" s="42" t="s">
+        <v>818</v>
+      </c>
+      <c r="N33" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(10,'','Poste de Sectionnement n°10','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
+        <v>11</v>
+      </c>
       <c r="B34" s="40"/>
-      <c r="C34" s="52"/>
+      <c r="C34" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°11</v>
+      </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="I34" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>798</v>
+      </c>
+      <c r="K34" s="53">
+        <f t="shared" si="5"/>
+        <v>766</v>
+      </c>
+      <c r="L34" s="44">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>818</v>
+      </c>
+      <c r="N34" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(11,'','Poste de Sectionnement n°11','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39">
+        <v>12</v>
+      </c>
       <c r="B35" s="40"/>
-      <c r="C35" s="52"/>
+      <c r="C35" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°12</v>
+      </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="I35" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J35" s="42" t="s">
+        <v>799</v>
+      </c>
+      <c r="K35" s="53">
+        <f t="shared" si="5"/>
+        <v>848</v>
+      </c>
+      <c r="L35" s="44">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="M35" s="42" t="s">
+        <v>819</v>
+      </c>
+      <c r="N35" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(12,'','Poste de Sectionnement n°12','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <v>13</v>
+      </c>
       <c r="B36" s="40"/>
-      <c r="C36" s="52"/>
+      <c r="C36" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°13</v>
+      </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="I36" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" s="42" t="s">
+        <v>800</v>
+      </c>
+      <c r="K36" s="53">
+        <f t="shared" si="5"/>
+        <v>790</v>
+      </c>
+      <c r="L36" s="44">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="M36" s="42" t="s">
+        <v>820</v>
+      </c>
+      <c r="N36" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(13,'','Poste de Sectionnement n°13','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39">
+        <v>14</v>
+      </c>
       <c r="B37" s="40"/>
-      <c r="C37" s="52"/>
+      <c r="C37" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°14</v>
+      </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="I37" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" s="42" t="s">
+        <v>801</v>
+      </c>
+      <c r="K37" s="53">
+        <f t="shared" si="5"/>
+        <v>1050</v>
+      </c>
+      <c r="L37" s="44">
+        <f t="shared" si="6"/>
+        <v>445</v>
+      </c>
+      <c r="M37" s="42" t="s">
+        <v>821</v>
+      </c>
+      <c r="N37" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(14,'','Poste de Sectionnement n°14','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
+        <v>15</v>
+      </c>
       <c r="B38" s="40"/>
-      <c r="C38" s="52"/>
+      <c r="C38" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°15</v>
+      </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="I38" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" s="42" t="s">
+        <v>802</v>
+      </c>
+      <c r="K38" s="53">
+        <f t="shared" si="5"/>
+        <v>1215</v>
+      </c>
+      <c r="L38" s="44">
+        <f t="shared" si="6"/>
+        <v>475</v>
+      </c>
+      <c r="M38" s="42" t="s">
+        <v>822</v>
+      </c>
+      <c r="N38" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(15,'','Poste de Sectionnement n°15','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39">
+        <v>16</v>
+      </c>
       <c r="B39" s="40"/>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°16</v>
+      </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="I39" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" s="42" t="s">
+        <v>803</v>
+      </c>
+      <c r="K39" s="53">
+        <f t="shared" si="5"/>
+        <v>986</v>
+      </c>
+      <c r="L39" s="44">
+        <f t="shared" si="6"/>
+        <v>505</v>
+      </c>
+      <c r="M39" s="42" t="s">
+        <v>823</v>
+      </c>
+      <c r="N39" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(16,'','Poste de Sectionnement n°16','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39">
+        <v>17</v>
+      </c>
       <c r="B40" s="40"/>
-      <c r="C40" s="52"/>
+      <c r="C40" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°17</v>
+      </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="I40" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J40" s="42" t="s">
+        <v>804</v>
+      </c>
+      <c r="K40" s="53">
+        <f t="shared" si="5"/>
+        <v>1132</v>
+      </c>
+      <c r="L40" s="44">
+        <f t="shared" si="6"/>
+        <v>564.5</v>
+      </c>
+      <c r="M40" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="N40" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(17,'','Poste de Sectionnement n°17','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
+        <v>18</v>
+      </c>
       <c r="B41" s="40"/>
-      <c r="C41" s="52"/>
+      <c r="C41" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°18</v>
+      </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="I41" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="K41" s="53">
+        <f t="shared" si="5"/>
+        <v>1225</v>
+      </c>
+      <c r="L41" s="44">
+        <f t="shared" si="6"/>
+        <v>594</v>
+      </c>
+      <c r="M41" s="42" t="s">
+        <v>824</v>
+      </c>
+      <c r="N41" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(18,'','Poste de Sectionnement n°18','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
+        <v>19</v>
+      </c>
       <c r="B42" s="40"/>
-      <c r="C42" s="52"/>
+      <c r="C42" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°19</v>
+      </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="I42" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" s="42" t="s">
+        <v>806</v>
+      </c>
+      <c r="K42" s="53">
+        <f t="shared" si="5"/>
+        <v>997</v>
+      </c>
+      <c r="L42" s="44">
+        <f t="shared" si="6"/>
+        <v>624</v>
+      </c>
+      <c r="M42" s="42" t="s">
+        <v>825</v>
+      </c>
+      <c r="N42" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(19,'','Poste de Sectionnement n°19','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
+        <v>20</v>
+      </c>
       <c r="B43" s="40"/>
-      <c r="C43" s="52"/>
+      <c r="C43" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°20</v>
+      </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="I43" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="K43" s="53">
+        <f t="shared" si="5"/>
+        <v>599</v>
+      </c>
+      <c r="L43" s="44">
+        <f t="shared" si="6"/>
+        <v>654</v>
+      </c>
+      <c r="M43" s="42" t="s">
+        <v>826</v>
+      </c>
+      <c r="N43" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(20,'','Poste de Sectionnement n°20','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39">
+        <v>21</v>
+      </c>
       <c r="B44" s="40"/>
-      <c r="C44" s="52"/>
+      <c r="C44" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°21</v>
+      </c>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="I44" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J44" s="42" t="s">
+        <v>808</v>
+      </c>
+      <c r="K44" s="53">
+        <f t="shared" si="5"/>
+        <v>553</v>
+      </c>
+      <c r="L44" s="44">
+        <f t="shared" si="6"/>
+        <v>684</v>
+      </c>
+      <c r="M44" s="42" t="s">
+        <v>827</v>
+      </c>
+      <c r="N44" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(21,'','Poste de Sectionnement n°21','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>22</v>
+      </c>
       <c r="B45" s="40"/>
-      <c r="C45" s="52"/>
+      <c r="C45" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°22</v>
+      </c>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="I45" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J45" s="42" t="s">
+        <v>809</v>
+      </c>
+      <c r="K45" s="53">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="L45" s="44">
+        <f t="shared" si="6"/>
+        <v>714</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>785</v>
+      </c>
+      <c r="N45" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(22,'','Poste de Sectionnement n°22','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>23</v>
+      </c>
       <c r="B46" s="40"/>
-      <c r="C46" s="52"/>
+      <c r="C46" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°23</v>
+      </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="I46" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" s="42" t="s">
+        <v>810</v>
+      </c>
+      <c r="K46" s="53">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="L46" s="44">
+        <f t="shared" si="6"/>
+        <v>744</v>
+      </c>
+      <c r="M46" s="42" t="s">
+        <v>828</v>
+      </c>
+      <c r="N46" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(23,'','Poste de Sectionnement n°23','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39">
+        <v>24</v>
+      </c>
       <c r="B47" s="40"/>
-      <c r="C47" s="52"/>
+      <c r="C47" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°24</v>
+      </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
-      <c r="I47" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="I47" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J47" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="K47" s="53">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="L47" s="44">
+        <f t="shared" si="6"/>
+        <v>774</v>
+      </c>
+      <c r="M47" s="42" t="s">
+        <v>786</v>
+      </c>
+      <c r="N47" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(24,'','Poste de Sectionnement n°24','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39">
+        <v>25</v>
+      </c>
       <c r="B48" s="40"/>
-      <c r="C48" s="52"/>
+      <c r="C48" s="52" t="str">
+        <f t="shared" si="7"/>
+        <v>Poste de Sectionnement n°25</v>
+      </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
-      <c r="I48" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J48" s="42" t="s">
+        <v>812</v>
+      </c>
+      <c r="K48" s="53">
+        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="L48" s="44">
+        <f t="shared" si="6"/>
+        <v>804</v>
+      </c>
+      <c r="M48" s="42" t="s">
+        <v>829</v>
+      </c>
+      <c r="N48" s="52" t="str">
+        <f t="shared" si="4"/>
+        <v>(25,'','Poste de Sectionnement n°25','Saturday-01-jj','Saturday-01-jj',,,),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="40"/>
       <c r="C49" s="52"/>
@@ -19675,12 +20959,17 @@
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
-      <c r="I49" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="40"/>
       <c r="C50" s="52"/>
@@ -19689,12 +20978,17 @@
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
       <c r="H50" s="42"/>
-      <c r="I50" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="40"/>
       <c r="C51" s="52"/>
@@ -19703,12 +20997,17 @@
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
-      <c r="I51" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="40"/>
       <c r="C52" s="52"/>
@@ -19717,12 +21016,17 @@
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
-      <c r="I52" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="40"/>
       <c r="C53" s="52"/>
@@ -19731,12 +21035,17 @@
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
       <c r="H53" s="42"/>
-      <c r="I53" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="40"/>
       <c r="C54" s="52"/>
@@ -19745,12 +21054,17 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="40"/>
       <c r="C55" s="52"/>
@@ -19759,12 +21073,17 @@
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
       <c r="H55" s="42"/>
-      <c r="I55" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="40"/>
       <c r="C56" s="52"/>
@@ -19773,12 +21092,17 @@
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
-      <c r="I56" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="40"/>
       <c r="C57" s="52"/>
@@ -19787,12 +21111,17 @@
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
-      <c r="I57" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="40"/>
       <c r="C58" s="52"/>
@@ -19801,12 +21130,17 @@
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
-      <c r="I58" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="40"/>
       <c r="C59" s="52"/>
@@ -19815,12 +21149,17 @@
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
-      <c r="I59" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="40"/>
       <c r="C60" s="52"/>
@@ -19829,12 +21168,17 @@
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
       <c r="H60" s="42"/>
-      <c r="I60" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="40"/>
       <c r="C61" s="52"/>
@@ -19843,12 +21187,17 @@
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
       <c r="H61" s="42"/>
-      <c r="I61" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="40"/>
       <c r="C62" s="52"/>
@@ -19857,12 +21206,17 @@
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
-      <c r="I62" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="40"/>
       <c r="C63" s="52"/>
@@ -19871,12 +21225,17 @@
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
       <c r="H63" s="42"/>
-      <c r="I63" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="40"/>
       <c r="C64" s="52"/>
@@ -19885,12 +21244,17 @@
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
       <c r="H64" s="42"/>
-      <c r="I64" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="40"/>
       <c r="C65" s="52"/>
@@ -19899,12 +21263,17 @@
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
       <c r="H65" s="42"/>
-      <c r="I65" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="40"/>
       <c r="C66" s="52"/>
@@ -19913,12 +21282,17 @@
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
       <c r="H66" s="42"/>
-      <c r="I66" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="40"/>
       <c r="C67" s="52"/>
@@ -19927,12 +21301,17 @@
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
       <c r="H67" s="42"/>
-      <c r="I67" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="40"/>
       <c r="C68" s="52"/>
@@ -19941,12 +21320,17 @@
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
-      <c r="I68" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="40"/>
       <c r="C69" s="52"/>
@@ -19955,12 +21339,17 @@
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
       <c r="H69" s="42"/>
-      <c r="I69" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="40"/>
       <c r="C70" s="52"/>
@@ -19969,12 +21358,17 @@
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
       <c r="H70" s="42"/>
-      <c r="I70" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="40"/>
       <c r="C71" s="52"/>
@@ -19983,12 +21377,17 @@
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
       <c r="H71" s="42"/>
-      <c r="I71" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="40"/>
       <c r="C72" s="52"/>
@@ -19997,12 +21396,17 @@
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
       <c r="H72" s="42"/>
-      <c r="I72" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="40"/>
       <c r="C73" s="52"/>
@@ -20011,12 +21415,17 @@
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
       <c r="H73" s="42"/>
-      <c r="I73" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="40"/>
       <c r="C74" s="52"/>
@@ -20025,12 +21434,17 @@
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
       <c r="H74" s="42"/>
-      <c r="I74" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="40"/>
       <c r="C75" s="52"/>
@@ -20039,12 +21453,17 @@
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
       <c r="H75" s="42"/>
-      <c r="I75" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="40"/>
       <c r="C76" s="52"/>
@@ -20053,12 +21472,17 @@
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
       <c r="H76" s="42"/>
-      <c r="I76" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="40"/>
       <c r="C77" s="52"/>
@@ -20067,12 +21491,17 @@
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
       <c r="H77" s="42"/>
-      <c r="I77" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="40"/>
       <c r="C78" s="52"/>
@@ -20081,12 +21510,17 @@
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
       <c r="H78" s="42"/>
-      <c r="I78" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="40"/>
       <c r="C79" s="52"/>
@@ -20095,12 +21529,17 @@
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
       <c r="H79" s="42"/>
-      <c r="I79" s="52" t="str">
-        <f t="shared" si="1"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="52" t="str">
+        <f t="shared" si="4"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="40"/>
       <c r="C80" s="52"/>
@@ -20109,12 +21548,17 @@
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
       <c r="H80" s="42"/>
-      <c r="I80" s="52" t="str">
-        <f t="shared" ref="I80:I143" si="2">CONCATENATE("(",A80,",'",B80,"','",C80,"','",TEXT(D80,"aaaa-mm-jj"),"','",TEXT(E80,"aaaa-mm-jj"),"',",F80,",",G80,",",H80,"),")</f>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="52" t="str">
+        <f t="shared" ref="N80:N143" si="8">CONCATENATE("(",A80,",'",B80,"','",C80,"','",TEXT(D80,"aaaa-mm-jj"),"','",TEXT(E80,"aaaa-mm-jj"),"',",F80,",",G80,",",H80,"),")</f>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="40"/>
       <c r="C81" s="52"/>
@@ -20123,12 +21567,17 @@
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
       <c r="H81" s="42"/>
-      <c r="I81" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="40"/>
       <c r="C82" s="52"/>
@@ -20137,12 +21586,17 @@
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
       <c r="H82" s="42"/>
-      <c r="I82" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="40"/>
       <c r="C83" s="52"/>
@@ -20151,12 +21605,17 @@
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
       <c r="H83" s="42"/>
-      <c r="I83" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="40"/>
       <c r="C84" s="52"/>
@@ -20165,12 +21624,17 @@
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
       <c r="H84" s="42"/>
-      <c r="I84" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="40"/>
       <c r="C85" s="52"/>
@@ -20179,12 +21643,17 @@
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
       <c r="H85" s="42"/>
-      <c r="I85" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="40"/>
       <c r="C86" s="52"/>
@@ -20193,12 +21662,17 @@
       <c r="F86" s="42"/>
       <c r="G86" s="42"/>
       <c r="H86" s="42"/>
-      <c r="I86" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="40"/>
       <c r="C87" s="52"/>
@@ -20207,12 +21681,17 @@
       <c r="F87" s="42"/>
       <c r="G87" s="42"/>
       <c r="H87" s="42"/>
-      <c r="I87" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="40"/>
       <c r="C88" s="52"/>
@@ -20221,12 +21700,17 @@
       <c r="F88" s="42"/>
       <c r="G88" s="42"/>
       <c r="H88" s="42"/>
-      <c r="I88" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="40"/>
       <c r="C89" s="52"/>
@@ -20235,12 +21719,17 @@
       <c r="F89" s="42"/>
       <c r="G89" s="42"/>
       <c r="H89" s="42"/>
-      <c r="I89" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="40"/>
       <c r="C90" s="52"/>
@@ -20249,12 +21738,17 @@
       <c r="F90" s="42"/>
       <c r="G90" s="42"/>
       <c r="H90" s="42"/>
-      <c r="I90" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="40"/>
       <c r="C91" s="52"/>
@@ -20263,12 +21757,17 @@
       <c r="F91" s="42"/>
       <c r="G91" s="42"/>
       <c r="H91" s="42"/>
-      <c r="I91" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="40"/>
       <c r="C92" s="52"/>
@@ -20277,12 +21776,17 @@
       <c r="F92" s="42"/>
       <c r="G92" s="42"/>
       <c r="H92" s="42"/>
-      <c r="I92" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="40"/>
       <c r="C93" s="52"/>
@@ -20291,12 +21795,17 @@
       <c r="F93" s="42"/>
       <c r="G93" s="42"/>
       <c r="H93" s="42"/>
-      <c r="I93" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="40"/>
       <c r="C94" s="52"/>
@@ -20305,12 +21814,17 @@
       <c r="F94" s="42"/>
       <c r="G94" s="42"/>
       <c r="H94" s="42"/>
-      <c r="I94" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="40"/>
       <c r="C95" s="52"/>
@@ -20319,12 +21833,17 @@
       <c r="F95" s="42"/>
       <c r="G95" s="42"/>
       <c r="H95" s="42"/>
-      <c r="I95" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="40"/>
       <c r="C96" s="52"/>
@@ -20333,12 +21852,17 @@
       <c r="F96" s="42"/>
       <c r="G96" s="42"/>
       <c r="H96" s="42"/>
-      <c r="I96" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="40"/>
       <c r="C97" s="52"/>
@@ -20347,12 +21871,17 @@
       <c r="F97" s="42"/>
       <c r="G97" s="42"/>
       <c r="H97" s="42"/>
-      <c r="I97" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="40"/>
       <c r="C98" s="52"/>
@@ -20361,12 +21890,17 @@
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
       <c r="H98" s="42"/>
-      <c r="I98" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="40"/>
       <c r="C99" s="52"/>
@@ -20375,12 +21909,17 @@
       <c r="F99" s="42"/>
       <c r="G99" s="42"/>
       <c r="H99" s="42"/>
-      <c r="I99" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="40"/>
       <c r="C100" s="52"/>
@@ -20389,12 +21928,17 @@
       <c r="F100" s="42"/>
       <c r="G100" s="42"/>
       <c r="H100" s="42"/>
-      <c r="I100" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="40"/>
       <c r="C101" s="52"/>
@@ -20403,12 +21947,17 @@
       <c r="F101" s="42"/>
       <c r="G101" s="42"/>
       <c r="H101" s="42"/>
-      <c r="I101" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="42"/>
+      <c r="N101" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="40"/>
       <c r="C102" s="52"/>
@@ -20417,12 +21966,17 @@
       <c r="F102" s="42"/>
       <c r="G102" s="42"/>
       <c r="H102" s="42"/>
-      <c r="I102" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
       <c r="B103" s="40"/>
       <c r="C103" s="52"/>
@@ -20431,12 +21985,17 @@
       <c r="F103" s="42"/>
       <c r="G103" s="42"/>
       <c r="H103" s="42"/>
-      <c r="I103" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="40"/>
       <c r="C104" s="52"/>
@@ -20445,12 +22004,17 @@
       <c r="F104" s="42"/>
       <c r="G104" s="42"/>
       <c r="H104" s="42"/>
-      <c r="I104" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
       <c r="B105" s="40"/>
       <c r="C105" s="52"/>
@@ -20459,12 +22023,17 @@
       <c r="F105" s="42"/>
       <c r="G105" s="42"/>
       <c r="H105" s="42"/>
-      <c r="I105" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
       <c r="B106" s="40"/>
       <c r="C106" s="52"/>
@@ -20473,12 +22042,17 @@
       <c r="F106" s="42"/>
       <c r="G106" s="42"/>
       <c r="H106" s="42"/>
-      <c r="I106" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="40"/>
       <c r="C107" s="52"/>
@@ -20487,12 +22061,17 @@
       <c r="F107" s="42"/>
       <c r="G107" s="42"/>
       <c r="H107" s="42"/>
-      <c r="I107" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="40"/>
       <c r="C108" s="52"/>
@@ -20501,12 +22080,17 @@
       <c r="F108" s="42"/>
       <c r="G108" s="42"/>
       <c r="H108" s="42"/>
-      <c r="I108" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="40"/>
       <c r="C109" s="52"/>
@@ -20515,12 +22099,17 @@
       <c r="F109" s="42"/>
       <c r="G109" s="42"/>
       <c r="H109" s="42"/>
-      <c r="I109" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="40"/>
       <c r="C110" s="52"/>
@@ -20529,12 +22118,17 @@
       <c r="F110" s="42"/>
       <c r="G110" s="42"/>
       <c r="H110" s="42"/>
-      <c r="I110" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="40"/>
       <c r="C111" s="52"/>
@@ -20543,12 +22137,17 @@
       <c r="F111" s="42"/>
       <c r="G111" s="42"/>
       <c r="H111" s="42"/>
-      <c r="I111" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="40"/>
       <c r="C112" s="52"/>
@@ -20557,12 +22156,17 @@
       <c r="F112" s="42"/>
       <c r="G112" s="42"/>
       <c r="H112" s="42"/>
-      <c r="I112" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="42"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
       <c r="B113" s="40"/>
       <c r="C113" s="52"/>
@@ -20571,12 +22175,17 @@
       <c r="F113" s="42"/>
       <c r="G113" s="42"/>
       <c r="H113" s="42"/>
-      <c r="I113" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="42"/>
+      <c r="M113" s="42"/>
+      <c r="N113" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="40"/>
       <c r="C114" s="52"/>
@@ -20585,12 +22194,17 @@
       <c r="F114" s="42"/>
       <c r="G114" s="42"/>
       <c r="H114" s="42"/>
-      <c r="I114" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="42"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="42"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
       <c r="B115" s="40"/>
       <c r="C115" s="52"/>
@@ -20599,12 +22213,17 @@
       <c r="F115" s="42"/>
       <c r="G115" s="42"/>
       <c r="H115" s="42"/>
-      <c r="I115" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
       <c r="B116" s="40"/>
       <c r="C116" s="52"/>
@@ -20613,12 +22232,17 @@
       <c r="F116" s="42"/>
       <c r="G116" s="42"/>
       <c r="H116" s="42"/>
-      <c r="I116" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="42"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
       <c r="B117" s="40"/>
       <c r="C117" s="52"/>
@@ -20627,12 +22251,17 @@
       <c r="F117" s="42"/>
       <c r="G117" s="42"/>
       <c r="H117" s="42"/>
-      <c r="I117" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
       <c r="B118" s="40"/>
       <c r="C118" s="52"/>
@@ -20641,12 +22270,17 @@
       <c r="F118" s="42"/>
       <c r="G118" s="42"/>
       <c r="H118" s="42"/>
-      <c r="I118" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+      <c r="K118" s="42"/>
+      <c r="L118" s="42"/>
+      <c r="M118" s="42"/>
+      <c r="N118" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="40"/>
       <c r="C119" s="52"/>
@@ -20655,12 +22289,17 @@
       <c r="F119" s="42"/>
       <c r="G119" s="42"/>
       <c r="H119" s="42"/>
-      <c r="I119" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="42"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="39"/>
       <c r="B120" s="40"/>
       <c r="C120" s="52"/>
@@ -20669,12 +22308,17 @@
       <c r="F120" s="42"/>
       <c r="G120" s="42"/>
       <c r="H120" s="42"/>
-      <c r="I120" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="42"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="42"/>
+      <c r="M120" s="42"/>
+      <c r="N120" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="40"/>
       <c r="C121" s="52"/>
@@ -20683,12 +22327,17 @@
       <c r="F121" s="42"/>
       <c r="G121" s="42"/>
       <c r="H121" s="42"/>
-      <c r="I121" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="42"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="42"/>
+      <c r="M121" s="42"/>
+      <c r="N121" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="40"/>
       <c r="C122" s="52"/>
@@ -20697,12 +22346,17 @@
       <c r="F122" s="42"/>
       <c r="G122" s="42"/>
       <c r="H122" s="42"/>
-      <c r="I122" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
+      <c r="M122" s="42"/>
+      <c r="N122" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="40"/>
       <c r="C123" s="52"/>
@@ -20711,12 +22365,17 @@
       <c r="F123" s="42"/>
       <c r="G123" s="42"/>
       <c r="H123" s="42"/>
-      <c r="I123" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="42"/>
+      <c r="M123" s="42"/>
+      <c r="N123" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
       <c r="B124" s="40"/>
       <c r="C124" s="52"/>
@@ -20725,12 +22384,17 @@
       <c r="F124" s="42"/>
       <c r="G124" s="42"/>
       <c r="H124" s="42"/>
-      <c r="I124" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="40"/>
       <c r="C125" s="52"/>
@@ -20739,12 +22403,17 @@
       <c r="F125" s="42"/>
       <c r="G125" s="42"/>
       <c r="H125" s="42"/>
-      <c r="I125" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="42"/>
+      <c r="M125" s="42"/>
+      <c r="N125" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="40"/>
       <c r="C126" s="52"/>
@@ -20753,12 +22422,17 @@
       <c r="F126" s="42"/>
       <c r="G126" s="42"/>
       <c r="H126" s="42"/>
-      <c r="I126" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="42"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="42"/>
+      <c r="M126" s="42"/>
+      <c r="N126" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="40"/>
       <c r="C127" s="52"/>
@@ -20767,12 +22441,17 @@
       <c r="F127" s="42"/>
       <c r="G127" s="42"/>
       <c r="H127" s="42"/>
-      <c r="I127" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="42"/>
+      <c r="K127" s="42"/>
+      <c r="L127" s="42"/>
+      <c r="M127" s="42"/>
+      <c r="N127" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="39"/>
       <c r="B128" s="40"/>
       <c r="C128" s="52"/>
@@ -20781,12 +22460,17 @@
       <c r="F128" s="42"/>
       <c r="G128" s="42"/>
       <c r="H128" s="42"/>
-      <c r="I128" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="42"/>
+      <c r="K128" s="42"/>
+      <c r="L128" s="42"/>
+      <c r="M128" s="42"/>
+      <c r="N128" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="39"/>
       <c r="B129" s="40"/>
       <c r="C129" s="52"/>
@@ -20795,12 +22479,17 @@
       <c r="F129" s="42"/>
       <c r="G129" s="42"/>
       <c r="H129" s="42"/>
-      <c r="I129" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="42"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="42"/>
+      <c r="M129" s="42"/>
+      <c r="N129" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="40"/>
       <c r="C130" s="52"/>
@@ -20809,12 +22498,17 @@
       <c r="F130" s="42"/>
       <c r="G130" s="42"/>
       <c r="H130" s="42"/>
-      <c r="I130" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="42"/>
+      <c r="K130" s="42"/>
+      <c r="L130" s="42"/>
+      <c r="M130" s="42"/>
+      <c r="N130" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="39"/>
       <c r="B131" s="40"/>
       <c r="C131" s="52"/>
@@ -20823,12 +22517,17 @@
       <c r="F131" s="42"/>
       <c r="G131" s="42"/>
       <c r="H131" s="42"/>
-      <c r="I131" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="42"/>
+      <c r="K131" s="42"/>
+      <c r="L131" s="42"/>
+      <c r="M131" s="42"/>
+      <c r="N131" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
       <c r="B132" s="40"/>
       <c r="C132" s="52"/>
@@ -20837,12 +22536,17 @@
       <c r="F132" s="42"/>
       <c r="G132" s="42"/>
       <c r="H132" s="42"/>
-      <c r="I132" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="42"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
       <c r="B133" s="40"/>
       <c r="C133" s="52"/>
@@ -20851,12 +22555,17 @@
       <c r="F133" s="42"/>
       <c r="G133" s="42"/>
       <c r="H133" s="42"/>
-      <c r="I133" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+      <c r="K133" s="42"/>
+      <c r="L133" s="42"/>
+      <c r="M133" s="42"/>
+      <c r="N133" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
       <c r="B134" s="40"/>
       <c r="C134" s="52"/>
@@ -20865,12 +22574,17 @@
       <c r="F134" s="42"/>
       <c r="G134" s="42"/>
       <c r="H134" s="42"/>
-      <c r="I134" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="42"/>
+      <c r="K134" s="42"/>
+      <c r="L134" s="42"/>
+      <c r="M134" s="42"/>
+      <c r="N134" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="39"/>
       <c r="B135" s="40"/>
       <c r="C135" s="52"/>
@@ -20879,12 +22593,17 @@
       <c r="F135" s="42"/>
       <c r="G135" s="42"/>
       <c r="H135" s="42"/>
-      <c r="I135" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
+      <c r="K135" s="42"/>
+      <c r="L135" s="42"/>
+      <c r="M135" s="42"/>
+      <c r="N135" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="40"/>
       <c r="C136" s="52"/>
@@ -20893,12 +22612,17 @@
       <c r="F136" s="42"/>
       <c r="G136" s="42"/>
       <c r="H136" s="42"/>
-      <c r="I136" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
+      <c r="K136" s="42"/>
+      <c r="L136" s="42"/>
+      <c r="M136" s="42"/>
+      <c r="N136" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
       <c r="B137" s="40"/>
       <c r="C137" s="52"/>
@@ -20907,12 +22631,17 @@
       <c r="F137" s="42"/>
       <c r="G137" s="42"/>
       <c r="H137" s="42"/>
-      <c r="I137" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="42"/>
+      <c r="K137" s="42"/>
+      <c r="L137" s="42"/>
+      <c r="M137" s="42"/>
+      <c r="N137" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
       <c r="B138" s="40"/>
       <c r="C138" s="52"/>
@@ -20921,12 +22650,17 @@
       <c r="F138" s="42"/>
       <c r="G138" s="42"/>
       <c r="H138" s="42"/>
-      <c r="I138" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="42"/>
+      <c r="K138" s="42"/>
+      <c r="L138" s="42"/>
+      <c r="M138" s="42"/>
+      <c r="N138" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="39"/>
       <c r="B139" s="40"/>
       <c r="C139" s="52"/>
@@ -20935,12 +22669,17 @@
       <c r="F139" s="42"/>
       <c r="G139" s="42"/>
       <c r="H139" s="42"/>
-      <c r="I139" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="42"/>
+      <c r="K139" s="42"/>
+      <c r="L139" s="42"/>
+      <c r="M139" s="42"/>
+      <c r="N139" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="40"/>
       <c r="C140" s="52"/>
@@ -20949,12 +22688,17 @@
       <c r="F140" s="42"/>
       <c r="G140" s="42"/>
       <c r="H140" s="42"/>
-      <c r="I140" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="42"/>
+      <c r="K140" s="42"/>
+      <c r="L140" s="42"/>
+      <c r="M140" s="42"/>
+      <c r="N140" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="39"/>
       <c r="B141" s="40"/>
       <c r="C141" s="52"/>
@@ -20963,12 +22707,17 @@
       <c r="F141" s="42"/>
       <c r="G141" s="42"/>
       <c r="H141" s="42"/>
-      <c r="I141" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="42"/>
+      <c r="K141" s="42"/>
+      <c r="L141" s="42"/>
+      <c r="M141" s="42"/>
+      <c r="N141" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="39"/>
       <c r="B142" s="40"/>
       <c r="C142" s="52"/>
@@ -20977,12 +22726,17 @@
       <c r="F142" s="42"/>
       <c r="G142" s="42"/>
       <c r="H142" s="42"/>
-      <c r="I142" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="42"/>
+      <c r="K142" s="42"/>
+      <c r="L142" s="42"/>
+      <c r="M142" s="42"/>
+      <c r="N142" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="39"/>
       <c r="B143" s="40"/>
       <c r="C143" s="52"/>
@@ -20991,12 +22745,17 @@
       <c r="F143" s="42"/>
       <c r="G143" s="42"/>
       <c r="H143" s="42"/>
-      <c r="I143" s="52" t="str">
-        <f t="shared" si="2"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="42"/>
+      <c r="K143" s="42"/>
+      <c r="L143" s="42"/>
+      <c r="M143" s="42"/>
+      <c r="N143" s="52" t="str">
+        <f t="shared" si="8"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="39"/>
       <c r="B144" s="40"/>
       <c r="C144" s="52"/>
@@ -21005,12 +22764,17 @@
       <c r="F144" s="42"/>
       <c r="G144" s="42"/>
       <c r="H144" s="42"/>
-      <c r="I144" s="52" t="str">
-        <f t="shared" ref="I144:I207" si="3">CONCATENATE("(",A144,",'",B144,"','",C144,"','",TEXT(D144,"aaaa-mm-jj"),"','",TEXT(E144,"aaaa-mm-jj"),"',",F144,",",G144,",",H144,"),")</f>
+      <c r="I144" s="42"/>
+      <c r="J144" s="42"/>
+      <c r="K144" s="42"/>
+      <c r="L144" s="42"/>
+      <c r="M144" s="42"/>
+      <c r="N144" s="52" t="str">
+        <f t="shared" ref="N144:N207" si="9">CONCATENATE("(",A144,",'",B144,"','",C144,"','",TEXT(D144,"aaaa-mm-jj"),"','",TEXT(E144,"aaaa-mm-jj"),"',",F144,",",G144,",",H144,"),")</f>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="39"/>
       <c r="B145" s="40"/>
       <c r="C145" s="52"/>
@@ -21019,12 +22783,17 @@
       <c r="F145" s="42"/>
       <c r="G145" s="42"/>
       <c r="H145" s="42"/>
-      <c r="I145" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="42"/>
+      <c r="K145" s="42"/>
+      <c r="L145" s="42"/>
+      <c r="M145" s="42"/>
+      <c r="N145" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="39"/>
       <c r="B146" s="40"/>
       <c r="C146" s="52"/>
@@ -21033,12 +22802,17 @@
       <c r="F146" s="42"/>
       <c r="G146" s="42"/>
       <c r="H146" s="42"/>
-      <c r="I146" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="42"/>
+      <c r="K146" s="42"/>
+      <c r="L146" s="42"/>
+      <c r="M146" s="42"/>
+      <c r="N146" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="39"/>
       <c r="B147" s="40"/>
       <c r="C147" s="52"/>
@@ -21047,12 +22821,17 @@
       <c r="F147" s="42"/>
       <c r="G147" s="42"/>
       <c r="H147" s="42"/>
-      <c r="I147" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="42"/>
+      <c r="K147" s="42"/>
+      <c r="L147" s="42"/>
+      <c r="M147" s="42"/>
+      <c r="N147" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="39"/>
       <c r="B148" s="40"/>
       <c r="C148" s="52"/>
@@ -21061,12 +22840,17 @@
       <c r="F148" s="42"/>
       <c r="G148" s="42"/>
       <c r="H148" s="42"/>
-      <c r="I148" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="42"/>
+      <c r="N148" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="39"/>
       <c r="B149" s="40"/>
       <c r="C149" s="52"/>
@@ -21075,12 +22859,17 @@
       <c r="F149" s="42"/>
       <c r="G149" s="42"/>
       <c r="H149" s="42"/>
-      <c r="I149" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I149" s="42"/>
+      <c r="J149" s="42"/>
+      <c r="K149" s="42"/>
+      <c r="L149" s="42"/>
+      <c r="M149" s="42"/>
+      <c r="N149" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="39"/>
       <c r="B150" s="40"/>
       <c r="C150" s="52"/>
@@ -21089,12 +22878,17 @@
       <c r="F150" s="42"/>
       <c r="G150" s="42"/>
       <c r="H150" s="42"/>
-      <c r="I150" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="42"/>
+      <c r="K150" s="42"/>
+      <c r="L150" s="42"/>
+      <c r="M150" s="42"/>
+      <c r="N150" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="39"/>
       <c r="B151" s="40"/>
       <c r="C151" s="52"/>
@@ -21103,12 +22897,17 @@
       <c r="F151" s="42"/>
       <c r="G151" s="42"/>
       <c r="H151" s="42"/>
-      <c r="I151" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="42"/>
+      <c r="K151" s="42"/>
+      <c r="L151" s="42"/>
+      <c r="M151" s="42"/>
+      <c r="N151" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="39"/>
       <c r="B152" s="40"/>
       <c r="C152" s="52"/>
@@ -21117,12 +22916,17 @@
       <c r="F152" s="42"/>
       <c r="G152" s="42"/>
       <c r="H152" s="42"/>
-      <c r="I152" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
+      <c r="K152" s="42"/>
+      <c r="L152" s="42"/>
+      <c r="M152" s="42"/>
+      <c r="N152" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="39"/>
       <c r="B153" s="40"/>
       <c r="C153" s="52"/>
@@ -21131,12 +22935,17 @@
       <c r="F153" s="42"/>
       <c r="G153" s="42"/>
       <c r="H153" s="42"/>
-      <c r="I153" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42"/>
+      <c r="K153" s="42"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="39"/>
       <c r="B154" s="40"/>
       <c r="C154" s="52"/>
@@ -21145,12 +22954,17 @@
       <c r="F154" s="42"/>
       <c r="G154" s="42"/>
       <c r="H154" s="42"/>
-      <c r="I154" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I154" s="42"/>
+      <c r="J154" s="42"/>
+      <c r="K154" s="42"/>
+      <c r="L154" s="42"/>
+      <c r="M154" s="42"/>
+      <c r="N154" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="39"/>
       <c r="B155" s="40"/>
       <c r="C155" s="52"/>
@@ -21159,12 +22973,17 @@
       <c r="F155" s="42"/>
       <c r="G155" s="42"/>
       <c r="H155" s="42"/>
-      <c r="I155" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="42"/>
+      <c r="K155" s="42"/>
+      <c r="L155" s="42"/>
+      <c r="M155" s="42"/>
+      <c r="N155" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="39"/>
       <c r="B156" s="40"/>
       <c r="C156" s="52"/>
@@ -21173,12 +22992,17 @@
       <c r="F156" s="42"/>
       <c r="G156" s="42"/>
       <c r="H156" s="42"/>
-      <c r="I156" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="42"/>
+      <c r="K156" s="42"/>
+      <c r="L156" s="42"/>
+      <c r="M156" s="42"/>
+      <c r="N156" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="39"/>
       <c r="B157" s="40"/>
       <c r="C157" s="52"/>
@@ -21187,12 +23011,17 @@
       <c r="F157" s="42"/>
       <c r="G157" s="42"/>
       <c r="H157" s="42"/>
-      <c r="I157" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="42"/>
+      <c r="K157" s="42"/>
+      <c r="L157" s="42"/>
+      <c r="M157" s="42"/>
+      <c r="N157" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="39"/>
       <c r="B158" s="40"/>
       <c r="C158" s="52"/>
@@ -21201,12 +23030,17 @@
       <c r="F158" s="42"/>
       <c r="G158" s="42"/>
       <c r="H158" s="42"/>
-      <c r="I158" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I158" s="42"/>
+      <c r="J158" s="42"/>
+      <c r="K158" s="42"/>
+      <c r="L158" s="42"/>
+      <c r="M158" s="42"/>
+      <c r="N158" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="39"/>
       <c r="B159" s="40"/>
       <c r="C159" s="52"/>
@@ -21215,12 +23049,17 @@
       <c r="F159" s="42"/>
       <c r="G159" s="42"/>
       <c r="H159" s="42"/>
-      <c r="I159" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I159" s="42"/>
+      <c r="J159" s="42"/>
+      <c r="K159" s="42"/>
+      <c r="L159" s="42"/>
+      <c r="M159" s="42"/>
+      <c r="N159" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="39"/>
       <c r="B160" s="40"/>
       <c r="C160" s="52"/>
@@ -21229,12 +23068,17 @@
       <c r="F160" s="42"/>
       <c r="G160" s="42"/>
       <c r="H160" s="42"/>
-      <c r="I160" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I160" s="42"/>
+      <c r="J160" s="42"/>
+      <c r="K160" s="42"/>
+      <c r="L160" s="42"/>
+      <c r="M160" s="42"/>
+      <c r="N160" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="39"/>
       <c r="B161" s="40"/>
       <c r="C161" s="52"/>
@@ -21243,12 +23087,17 @@
       <c r="F161" s="42"/>
       <c r="G161" s="42"/>
       <c r="H161" s="42"/>
-      <c r="I161" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I161" s="42"/>
+      <c r="J161" s="42"/>
+      <c r="K161" s="42"/>
+      <c r="L161" s="42"/>
+      <c r="M161" s="42"/>
+      <c r="N161" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="39"/>
       <c r="B162" s="40"/>
       <c r="C162" s="52"/>
@@ -21257,12 +23106,17 @@
       <c r="F162" s="42"/>
       <c r="G162" s="42"/>
       <c r="H162" s="42"/>
-      <c r="I162" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I162" s="42"/>
+      <c r="J162" s="42"/>
+      <c r="K162" s="42"/>
+      <c r="L162" s="42"/>
+      <c r="M162" s="42"/>
+      <c r="N162" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="39"/>
       <c r="B163" s="40"/>
       <c r="C163" s="52"/>
@@ -21271,12 +23125,17 @@
       <c r="F163" s="42"/>
       <c r="G163" s="42"/>
       <c r="H163" s="42"/>
-      <c r="I163" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I163" s="42"/>
+      <c r="J163" s="42"/>
+      <c r="K163" s="42"/>
+      <c r="L163" s="42"/>
+      <c r="M163" s="42"/>
+      <c r="N163" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="39"/>
       <c r="B164" s="40"/>
       <c r="C164" s="52"/>
@@ -21285,12 +23144,17 @@
       <c r="F164" s="42"/>
       <c r="G164" s="42"/>
       <c r="H164" s="42"/>
-      <c r="I164" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="42"/>
+      <c r="K164" s="42"/>
+      <c r="L164" s="42"/>
+      <c r="M164" s="42"/>
+      <c r="N164" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="39"/>
       <c r="B165" s="40"/>
       <c r="C165" s="52"/>
@@ -21299,12 +23163,17 @@
       <c r="F165" s="42"/>
       <c r="G165" s="42"/>
       <c r="H165" s="42"/>
-      <c r="I165" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I165" s="42"/>
+      <c r="J165" s="42"/>
+      <c r="K165" s="42"/>
+      <c r="L165" s="42"/>
+      <c r="M165" s="42"/>
+      <c r="N165" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="39"/>
       <c r="B166" s="40"/>
       <c r="C166" s="52"/>
@@ -21313,12 +23182,17 @@
       <c r="F166" s="42"/>
       <c r="G166" s="42"/>
       <c r="H166" s="42"/>
-      <c r="I166" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="42"/>
+      <c r="K166" s="42"/>
+      <c r="L166" s="42"/>
+      <c r="M166" s="42"/>
+      <c r="N166" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
       <c r="B167" s="40"/>
       <c r="C167" s="52"/>
@@ -21327,12 +23201,17 @@
       <c r="F167" s="42"/>
       <c r="G167" s="42"/>
       <c r="H167" s="42"/>
-      <c r="I167" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I167" s="42"/>
+      <c r="J167" s="42"/>
+      <c r="K167" s="42"/>
+      <c r="L167" s="42"/>
+      <c r="M167" s="42"/>
+      <c r="N167" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="39"/>
       <c r="B168" s="40"/>
       <c r="C168" s="52"/>
@@ -21341,12 +23220,17 @@
       <c r="F168" s="42"/>
       <c r="G168" s="42"/>
       <c r="H168" s="42"/>
-      <c r="I168" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I168" s="42"/>
+      <c r="J168" s="42"/>
+      <c r="K168" s="42"/>
+      <c r="L168" s="42"/>
+      <c r="M168" s="42"/>
+      <c r="N168" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="39"/>
       <c r="B169" s="40"/>
       <c r="C169" s="52"/>
@@ -21355,12 +23239,17 @@
       <c r="F169" s="42"/>
       <c r="G169" s="42"/>
       <c r="H169" s="42"/>
-      <c r="I169" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I169" s="42"/>
+      <c r="J169" s="42"/>
+      <c r="K169" s="42"/>
+      <c r="L169" s="42"/>
+      <c r="M169" s="42"/>
+      <c r="N169" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="39"/>
       <c r="B170" s="48"/>
       <c r="C170" s="52"/>
@@ -21369,12 +23258,17 @@
       <c r="F170" s="42"/>
       <c r="G170" s="42"/>
       <c r="H170" s="42"/>
-      <c r="I170" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I170" s="42"/>
+      <c r="J170" s="42"/>
+      <c r="K170" s="42"/>
+      <c r="L170" s="42"/>
+      <c r="M170" s="42"/>
+      <c r="N170" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="39"/>
       <c r="B171" s="40"/>
       <c r="C171" s="52"/>
@@ -21383,12 +23277,17 @@
       <c r="F171" s="42"/>
       <c r="G171" s="42"/>
       <c r="H171" s="42"/>
-      <c r="I171" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I171" s="42"/>
+      <c r="J171" s="42"/>
+      <c r="K171" s="42"/>
+      <c r="L171" s="42"/>
+      <c r="M171" s="42"/>
+      <c r="N171" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="39"/>
       <c r="B172" s="40"/>
       <c r="C172" s="52"/>
@@ -21397,12 +23296,17 @@
       <c r="F172" s="42"/>
       <c r="G172" s="42"/>
       <c r="H172" s="42"/>
-      <c r="I172" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I172" s="42"/>
+      <c r="J172" s="42"/>
+      <c r="K172" s="42"/>
+      <c r="L172" s="42"/>
+      <c r="M172" s="42"/>
+      <c r="N172" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="39"/>
       <c r="B173" s="40"/>
       <c r="C173" s="52"/>
@@ -21411,12 +23315,17 @@
       <c r="F173" s="42"/>
       <c r="G173" s="42"/>
       <c r="H173" s="42"/>
-      <c r="I173" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I173" s="42"/>
+      <c r="J173" s="42"/>
+      <c r="K173" s="42"/>
+      <c r="L173" s="42"/>
+      <c r="M173" s="42"/>
+      <c r="N173" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="39"/>
       <c r="B174" s="40"/>
       <c r="C174" s="52"/>
@@ -21425,12 +23334,17 @@
       <c r="F174" s="42"/>
       <c r="G174" s="42"/>
       <c r="H174" s="42"/>
-      <c r="I174" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I174" s="42"/>
+      <c r="J174" s="42"/>
+      <c r="K174" s="42"/>
+      <c r="L174" s="42"/>
+      <c r="M174" s="42"/>
+      <c r="N174" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="39"/>
       <c r="B175" s="40"/>
       <c r="C175" s="52"/>
@@ -21439,12 +23353,17 @@
       <c r="F175" s="42"/>
       <c r="G175" s="42"/>
       <c r="H175" s="42"/>
-      <c r="I175" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I175" s="42"/>
+      <c r="J175" s="42"/>
+      <c r="K175" s="42"/>
+      <c r="L175" s="42"/>
+      <c r="M175" s="42"/>
+      <c r="N175" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="39"/>
       <c r="B176" s="40"/>
       <c r="C176" s="52"/>
@@ -21453,12 +23372,17 @@
       <c r="F176" s="42"/>
       <c r="G176" s="42"/>
       <c r="H176" s="42"/>
-      <c r="I176" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I176" s="42"/>
+      <c r="J176" s="42"/>
+      <c r="K176" s="42"/>
+      <c r="L176" s="42"/>
+      <c r="M176" s="42"/>
+      <c r="N176" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="39"/>
       <c r="B177" s="40"/>
       <c r="C177" s="52"/>
@@ -21467,12 +23391,17 @@
       <c r="F177" s="42"/>
       <c r="G177" s="42"/>
       <c r="H177" s="42"/>
-      <c r="I177" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I177" s="42"/>
+      <c r="J177" s="42"/>
+      <c r="K177" s="42"/>
+      <c r="L177" s="42"/>
+      <c r="M177" s="42"/>
+      <c r="N177" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="39"/>
       <c r="B178" s="40"/>
       <c r="C178" s="52"/>
@@ -21481,12 +23410,17 @@
       <c r="F178" s="42"/>
       <c r="G178" s="42"/>
       <c r="H178" s="42"/>
-      <c r="I178" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I178" s="42"/>
+      <c r="J178" s="42"/>
+      <c r="K178" s="42"/>
+      <c r="L178" s="42"/>
+      <c r="M178" s="42"/>
+      <c r="N178" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="39"/>
       <c r="B179" s="40"/>
       <c r="C179" s="52"/>
@@ -21495,12 +23429,17 @@
       <c r="F179" s="42"/>
       <c r="G179" s="42"/>
       <c r="H179" s="42"/>
-      <c r="I179" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I179" s="42"/>
+      <c r="J179" s="42"/>
+      <c r="K179" s="42"/>
+      <c r="L179" s="42"/>
+      <c r="M179" s="42"/>
+      <c r="N179" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="39"/>
       <c r="B180" s="40"/>
       <c r="C180" s="52"/>
@@ -21509,12 +23448,17 @@
       <c r="F180" s="42"/>
       <c r="G180" s="42"/>
       <c r="H180" s="42"/>
-      <c r="I180" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I180" s="42"/>
+      <c r="J180" s="42"/>
+      <c r="K180" s="42"/>
+      <c r="L180" s="42"/>
+      <c r="M180" s="42"/>
+      <c r="N180" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="39"/>
       <c r="B181" s="40"/>
       <c r="C181" s="52"/>
@@ -21523,12 +23467,17 @@
       <c r="F181" s="42"/>
       <c r="G181" s="42"/>
       <c r="H181" s="42"/>
-      <c r="I181" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I181" s="42"/>
+      <c r="J181" s="42"/>
+      <c r="K181" s="42"/>
+      <c r="L181" s="42"/>
+      <c r="M181" s="42"/>
+      <c r="N181" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="39"/>
       <c r="B182" s="40"/>
       <c r="C182" s="52"/>
@@ -21537,12 +23486,17 @@
       <c r="F182" s="42"/>
       <c r="G182" s="42"/>
       <c r="H182" s="42"/>
-      <c r="I182" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I182" s="42"/>
+      <c r="J182" s="42"/>
+      <c r="K182" s="42"/>
+      <c r="L182" s="42"/>
+      <c r="M182" s="42"/>
+      <c r="N182" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="39"/>
       <c r="B183" s="40"/>
       <c r="C183" s="52"/>
@@ -21551,12 +23505,17 @@
       <c r="F183" s="42"/>
       <c r="G183" s="42"/>
       <c r="H183" s="42"/>
-      <c r="I183" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I183" s="42"/>
+      <c r="J183" s="42"/>
+      <c r="K183" s="42"/>
+      <c r="L183" s="42"/>
+      <c r="M183" s="42"/>
+      <c r="N183" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="39"/>
       <c r="B184" s="40"/>
       <c r="C184" s="52"/>
@@ -21565,12 +23524,17 @@
       <c r="F184" s="42"/>
       <c r="G184" s="42"/>
       <c r="H184" s="42"/>
-      <c r="I184" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I184" s="42"/>
+      <c r="J184" s="42"/>
+      <c r="K184" s="42"/>
+      <c r="L184" s="42"/>
+      <c r="M184" s="42"/>
+      <c r="N184" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="39"/>
       <c r="B185" s="40"/>
       <c r="C185" s="52"/>
@@ -21579,12 +23543,17 @@
       <c r="F185" s="42"/>
       <c r="G185" s="42"/>
       <c r="H185" s="42"/>
-      <c r="I185" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I185" s="42"/>
+      <c r="J185" s="42"/>
+      <c r="K185" s="42"/>
+      <c r="L185" s="42"/>
+      <c r="M185" s="42"/>
+      <c r="N185" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="39"/>
       <c r="B186" s="40"/>
       <c r="C186" s="52"/>
@@ -21593,12 +23562,17 @@
       <c r="F186" s="42"/>
       <c r="G186" s="42"/>
       <c r="H186" s="42"/>
-      <c r="I186" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I186" s="42"/>
+      <c r="J186" s="42"/>
+      <c r="K186" s="42"/>
+      <c r="L186" s="42"/>
+      <c r="M186" s="42"/>
+      <c r="N186" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="39"/>
       <c r="B187" s="40"/>
       <c r="C187" s="52"/>
@@ -21607,12 +23581,17 @@
       <c r="F187" s="42"/>
       <c r="G187" s="42"/>
       <c r="H187" s="42"/>
-      <c r="I187" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I187" s="42"/>
+      <c r="J187" s="42"/>
+      <c r="K187" s="42"/>
+      <c r="L187" s="42"/>
+      <c r="M187" s="42"/>
+      <c r="N187" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="39"/>
       <c r="B188" s="40"/>
       <c r="C188" s="52"/>
@@ -21621,12 +23600,17 @@
       <c r="F188" s="42"/>
       <c r="G188" s="42"/>
       <c r="H188" s="42"/>
-      <c r="I188" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I188" s="42"/>
+      <c r="J188" s="42"/>
+      <c r="K188" s="42"/>
+      <c r="L188" s="42"/>
+      <c r="M188" s="42"/>
+      <c r="N188" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="39"/>
       <c r="B189" s="40"/>
       <c r="C189" s="52"/>
@@ -21635,12 +23619,17 @@
       <c r="F189" s="42"/>
       <c r="G189" s="42"/>
       <c r="H189" s="42"/>
-      <c r="I189" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I189" s="42"/>
+      <c r="J189" s="42"/>
+      <c r="K189" s="42"/>
+      <c r="L189" s="42"/>
+      <c r="M189" s="42"/>
+      <c r="N189" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="39"/>
       <c r="B190" s="40"/>
       <c r="C190" s="52"/>
@@ -21649,12 +23638,17 @@
       <c r="F190" s="42"/>
       <c r="G190" s="42"/>
       <c r="H190" s="42"/>
-      <c r="I190" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I190" s="42"/>
+      <c r="J190" s="42"/>
+      <c r="K190" s="42"/>
+      <c r="L190" s="42"/>
+      <c r="M190" s="42"/>
+      <c r="N190" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="39"/>
       <c r="B191" s="40"/>
       <c r="C191" s="52"/>
@@ -21663,12 +23657,17 @@
       <c r="F191" s="42"/>
       <c r="G191" s="42"/>
       <c r="H191" s="42"/>
-      <c r="I191" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I191" s="42"/>
+      <c r="J191" s="42"/>
+      <c r="K191" s="42"/>
+      <c r="L191" s="42"/>
+      <c r="M191" s="42"/>
+      <c r="N191" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="39"/>
       <c r="B192" s="40"/>
       <c r="C192" s="52"/>
@@ -21677,12 +23676,17 @@
       <c r="F192" s="42"/>
       <c r="G192" s="42"/>
       <c r="H192" s="42"/>
-      <c r="I192" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I192" s="42"/>
+      <c r="J192" s="42"/>
+      <c r="K192" s="42"/>
+      <c r="L192" s="42"/>
+      <c r="M192" s="42"/>
+      <c r="N192" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="39"/>
       <c r="B193" s="40"/>
       <c r="C193" s="52"/>
@@ -21691,12 +23695,17 @@
       <c r="F193" s="42"/>
       <c r="G193" s="42"/>
       <c r="H193" s="42"/>
-      <c r="I193" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I193" s="42"/>
+      <c r="J193" s="42"/>
+      <c r="K193" s="42"/>
+      <c r="L193" s="42"/>
+      <c r="M193" s="42"/>
+      <c r="N193" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="39"/>
       <c r="B194" s="40"/>
       <c r="C194" s="52"/>
@@ -21705,12 +23714,17 @@
       <c r="F194" s="42"/>
       <c r="G194" s="42"/>
       <c r="H194" s="42"/>
-      <c r="I194" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I194" s="42"/>
+      <c r="J194" s="42"/>
+      <c r="K194" s="42"/>
+      <c r="L194" s="42"/>
+      <c r="M194" s="42"/>
+      <c r="N194" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="39"/>
       <c r="B195" s="40"/>
       <c r="C195" s="52"/>
@@ -21719,12 +23733,17 @@
       <c r="F195" s="42"/>
       <c r="G195" s="42"/>
       <c r="H195" s="42"/>
-      <c r="I195" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I195" s="42"/>
+      <c r="J195" s="42"/>
+      <c r="K195" s="42"/>
+      <c r="L195" s="42"/>
+      <c r="M195" s="42"/>
+      <c r="N195" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="39"/>
       <c r="B196" s="40"/>
       <c r="C196" s="52"/>
@@ -21733,12 +23752,17 @@
       <c r="F196" s="42"/>
       <c r="G196" s="42"/>
       <c r="H196" s="42"/>
-      <c r="I196" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I196" s="42"/>
+      <c r="J196" s="42"/>
+      <c r="K196" s="42"/>
+      <c r="L196" s="42"/>
+      <c r="M196" s="42"/>
+      <c r="N196" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="39"/>
       <c r="B197" s="40"/>
       <c r="C197" s="52"/>
@@ -21747,12 +23771,17 @@
       <c r="F197" s="42"/>
       <c r="G197" s="42"/>
       <c r="H197" s="42"/>
-      <c r="I197" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I197" s="42"/>
+      <c r="J197" s="42"/>
+      <c r="K197" s="42"/>
+      <c r="L197" s="42"/>
+      <c r="M197" s="42"/>
+      <c r="N197" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="39"/>
       <c r="B198" s="40"/>
       <c r="C198" s="52"/>
@@ -21761,12 +23790,17 @@
       <c r="F198" s="42"/>
       <c r="G198" s="42"/>
       <c r="H198" s="42"/>
-      <c r="I198" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I198" s="42"/>
+      <c r="J198" s="42"/>
+      <c r="K198" s="42"/>
+      <c r="L198" s="42"/>
+      <c r="M198" s="42"/>
+      <c r="N198" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="39"/>
       <c r="B199" s="40"/>
       <c r="C199" s="52"/>
@@ -21775,12 +23809,17 @@
       <c r="F199" s="42"/>
       <c r="G199" s="42"/>
       <c r="H199" s="42"/>
-      <c r="I199" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I199" s="42"/>
+      <c r="J199" s="42"/>
+      <c r="K199" s="42"/>
+      <c r="L199" s="42"/>
+      <c r="M199" s="42"/>
+      <c r="N199" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="39"/>
       <c r="B200" s="40"/>
       <c r="C200" s="52"/>
@@ -21789,12 +23828,17 @@
       <c r="F200" s="42"/>
       <c r="G200" s="42"/>
       <c r="H200" s="42"/>
-      <c r="I200" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I200" s="42"/>
+      <c r="J200" s="42"/>
+      <c r="K200" s="42"/>
+      <c r="L200" s="42"/>
+      <c r="M200" s="42"/>
+      <c r="N200" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="39"/>
       <c r="B201" s="40"/>
       <c r="C201" s="52"/>
@@ -21803,12 +23847,17 @@
       <c r="F201" s="42"/>
       <c r="G201" s="42"/>
       <c r="H201" s="42"/>
-      <c r="I201" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I201" s="42"/>
+      <c r="J201" s="42"/>
+      <c r="K201" s="42"/>
+      <c r="L201" s="42"/>
+      <c r="M201" s="42"/>
+      <c r="N201" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="39"/>
       <c r="B202" s="40"/>
       <c r="C202" s="52"/>
@@ -21817,12 +23866,17 @@
       <c r="F202" s="42"/>
       <c r="G202" s="42"/>
       <c r="H202" s="42"/>
-      <c r="I202" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I202" s="42"/>
+      <c r="J202" s="42"/>
+      <c r="K202" s="42"/>
+      <c r="L202" s="42"/>
+      <c r="M202" s="42"/>
+      <c r="N202" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="39"/>
       <c r="B203" s="40"/>
       <c r="C203" s="52"/>
@@ -21831,12 +23885,17 @@
       <c r="F203" s="42"/>
       <c r="G203" s="42"/>
       <c r="H203" s="42"/>
-      <c r="I203" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I203" s="42"/>
+      <c r="J203" s="42"/>
+      <c r="K203" s="42"/>
+      <c r="L203" s="42"/>
+      <c r="M203" s="42"/>
+      <c r="N203" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="39"/>
       <c r="B204" s="40"/>
       <c r="C204" s="52"/>
@@ -21845,12 +23904,17 @@
       <c r="F204" s="42"/>
       <c r="G204" s="42"/>
       <c r="H204" s="42"/>
-      <c r="I204" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I204" s="42"/>
+      <c r="J204" s="42"/>
+      <c r="K204" s="42"/>
+      <c r="L204" s="42"/>
+      <c r="M204" s="42"/>
+      <c r="N204" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="39"/>
       <c r="B205" s="40"/>
       <c r="C205" s="52"/>
@@ -21859,12 +23923,17 @@
       <c r="F205" s="42"/>
       <c r="G205" s="42"/>
       <c r="H205" s="42"/>
-      <c r="I205" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I205" s="42"/>
+      <c r="J205" s="42"/>
+      <c r="K205" s="42"/>
+      <c r="L205" s="42"/>
+      <c r="M205" s="42"/>
+      <c r="N205" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="39"/>
       <c r="B206" s="40"/>
       <c r="C206" s="52"/>
@@ -21873,12 +23942,17 @@
       <c r="F206" s="42"/>
       <c r="G206" s="42"/>
       <c r="H206" s="42"/>
-      <c r="I206" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I206" s="42"/>
+      <c r="J206" s="42"/>
+      <c r="K206" s="42"/>
+      <c r="L206" s="42"/>
+      <c r="M206" s="42"/>
+      <c r="N206" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="39"/>
       <c r="B207" s="40"/>
       <c r="C207" s="52"/>
@@ -21887,12 +23961,17 @@
       <c r="F207" s="42"/>
       <c r="G207" s="42"/>
       <c r="H207" s="42"/>
-      <c r="I207" s="52" t="str">
-        <f t="shared" si="3"/>
+      <c r="I207" s="42"/>
+      <c r="J207" s="42"/>
+      <c r="K207" s="42"/>
+      <c r="L207" s="42"/>
+      <c r="M207" s="42"/>
+      <c r="N207" s="52" t="str">
+        <f t="shared" si="9"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="39"/>
       <c r="B208" s="40"/>
       <c r="C208" s="52"/>
@@ -21901,12 +23980,17 @@
       <c r="F208" s="42"/>
       <c r="G208" s="42"/>
       <c r="H208" s="42"/>
-      <c r="I208" s="52" t="str">
-        <f t="shared" ref="I208:I232" si="4">CONCATENATE("(",A208,",'",B208,"','",C208,"','",TEXT(D208,"aaaa-mm-jj"),"','",TEXT(E208,"aaaa-mm-jj"),"',",F208,",",G208,",",H208,"),")</f>
+      <c r="I208" s="42"/>
+      <c r="J208" s="42"/>
+      <c r="K208" s="42"/>
+      <c r="L208" s="42"/>
+      <c r="M208" s="42"/>
+      <c r="N208" s="52" t="str">
+        <f t="shared" ref="N208:N232" si="10">CONCATENATE("(",A208,",'",B208,"','",C208,"','",TEXT(D208,"aaaa-mm-jj"),"','",TEXT(E208,"aaaa-mm-jj"),"',",F208,",",G208,",",H208,"),")</f>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="39"/>
       <c r="B209" s="40"/>
       <c r="C209" s="52"/>
@@ -21915,12 +23999,17 @@
       <c r="F209" s="42"/>
       <c r="G209" s="42"/>
       <c r="H209" s="42"/>
-      <c r="I209" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I209" s="42"/>
+      <c r="J209" s="42"/>
+      <c r="K209" s="42"/>
+      <c r="L209" s="42"/>
+      <c r="M209" s="42"/>
+      <c r="N209" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="39"/>
       <c r="B210" s="40"/>
       <c r="C210" s="52"/>
@@ -21929,12 +24018,17 @@
       <c r="F210" s="42"/>
       <c r="G210" s="42"/>
       <c r="H210" s="42"/>
-      <c r="I210" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I210" s="42"/>
+      <c r="J210" s="42"/>
+      <c r="K210" s="42"/>
+      <c r="L210" s="42"/>
+      <c r="M210" s="42"/>
+      <c r="N210" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
       <c r="B211" s="40"/>
       <c r="C211" s="52"/>
@@ -21943,12 +24037,17 @@
       <c r="F211" s="42"/>
       <c r="G211" s="42"/>
       <c r="H211" s="42"/>
-      <c r="I211" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I211" s="42"/>
+      <c r="J211" s="42"/>
+      <c r="K211" s="42"/>
+      <c r="L211" s="42"/>
+      <c r="M211" s="42"/>
+      <c r="N211" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="39"/>
       <c r="B212" s="40"/>
       <c r="C212" s="52"/>
@@ -21957,12 +24056,17 @@
       <c r="F212" s="42"/>
       <c r="G212" s="42"/>
       <c r="H212" s="42"/>
-      <c r="I212" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I212" s="42"/>
+      <c r="J212" s="42"/>
+      <c r="K212" s="42"/>
+      <c r="L212" s="42"/>
+      <c r="M212" s="42"/>
+      <c r="N212" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="39"/>
       <c r="B213" s="40"/>
       <c r="C213" s="52"/>
@@ -21971,12 +24075,17 @@
       <c r="F213" s="42"/>
       <c r="G213" s="42"/>
       <c r="H213" s="42"/>
-      <c r="I213" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I213" s="42"/>
+      <c r="J213" s="42"/>
+      <c r="K213" s="42"/>
+      <c r="L213" s="42"/>
+      <c r="M213" s="42"/>
+      <c r="N213" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="39"/>
       <c r="B214" s="40"/>
       <c r="C214" s="52"/>
@@ -21985,12 +24094,17 @@
       <c r="F214" s="42"/>
       <c r="G214" s="42"/>
       <c r="H214" s="42"/>
-      <c r="I214" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I214" s="42"/>
+      <c r="J214" s="42"/>
+      <c r="K214" s="42"/>
+      <c r="L214" s="42"/>
+      <c r="M214" s="42"/>
+      <c r="N214" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="39"/>
       <c r="B215" s="40"/>
       <c r="C215" s="52"/>
@@ -21999,12 +24113,17 @@
       <c r="F215" s="42"/>
       <c r="G215" s="42"/>
       <c r="H215" s="42"/>
-      <c r="I215" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I215" s="42"/>
+      <c r="J215" s="42"/>
+      <c r="K215" s="42"/>
+      <c r="L215" s="42"/>
+      <c r="M215" s="42"/>
+      <c r="N215" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="39"/>
       <c r="B216" s="40"/>
       <c r="C216" s="52"/>
@@ -22013,12 +24132,17 @@
       <c r="F216" s="42"/>
       <c r="G216" s="42"/>
       <c r="H216" s="42"/>
-      <c r="I216" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I216" s="42"/>
+      <c r="J216" s="42"/>
+      <c r="K216" s="42"/>
+      <c r="L216" s="42"/>
+      <c r="M216" s="42"/>
+      <c r="N216" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="39"/>
       <c r="B217" s="40"/>
       <c r="C217" s="52"/>
@@ -22027,12 +24151,17 @@
       <c r="F217" s="42"/>
       <c r="G217" s="42"/>
       <c r="H217" s="42"/>
-      <c r="I217" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I217" s="42"/>
+      <c r="J217" s="42"/>
+      <c r="K217" s="42"/>
+      <c r="L217" s="42"/>
+      <c r="M217" s="42"/>
+      <c r="N217" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="39"/>
       <c r="B218" s="40"/>
       <c r="C218" s="52"/>
@@ -22041,12 +24170,17 @@
       <c r="F218" s="42"/>
       <c r="G218" s="42"/>
       <c r="H218" s="42"/>
-      <c r="I218" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I218" s="42"/>
+      <c r="J218" s="42"/>
+      <c r="K218" s="42"/>
+      <c r="L218" s="42"/>
+      <c r="M218" s="42"/>
+      <c r="N218" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="39"/>
       <c r="B219" s="40"/>
       <c r="C219" s="52"/>
@@ -22055,12 +24189,17 @@
       <c r="F219" s="42"/>
       <c r="G219" s="42"/>
       <c r="H219" s="42"/>
-      <c r="I219" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I219" s="42"/>
+      <c r="J219" s="42"/>
+      <c r="K219" s="42"/>
+      <c r="L219" s="42"/>
+      <c r="M219" s="42"/>
+      <c r="N219" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="39"/>
       <c r="B220" s="40"/>
       <c r="C220" s="52"/>
@@ -22069,12 +24208,17 @@
       <c r="F220" s="42"/>
       <c r="G220" s="42"/>
       <c r="H220" s="42"/>
-      <c r="I220" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I220" s="42"/>
+      <c r="J220" s="42"/>
+      <c r="K220" s="42"/>
+      <c r="L220" s="42"/>
+      <c r="M220" s="42"/>
+      <c r="N220" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="39"/>
       <c r="B221" s="40"/>
       <c r="C221" s="52"/>
@@ -22083,12 +24227,17 @@
       <c r="F221" s="42"/>
       <c r="G221" s="42"/>
       <c r="H221" s="42"/>
-      <c r="I221" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I221" s="42"/>
+      <c r="J221" s="42"/>
+      <c r="K221" s="42"/>
+      <c r="L221" s="42"/>
+      <c r="M221" s="42"/>
+      <c r="N221" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="39"/>
       <c r="B222" s="40"/>
       <c r="C222" s="52"/>
@@ -22097,12 +24246,17 @@
       <c r="F222" s="42"/>
       <c r="G222" s="42"/>
       <c r="H222" s="42"/>
-      <c r="I222" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I222" s="42"/>
+      <c r="J222" s="42"/>
+      <c r="K222" s="42"/>
+      <c r="L222" s="42"/>
+      <c r="M222" s="42"/>
+      <c r="N222" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="39"/>
       <c r="B223" s="40"/>
       <c r="C223" s="52"/>
@@ -22111,12 +24265,17 @@
       <c r="F223" s="42"/>
       <c r="G223" s="42"/>
       <c r="H223" s="42"/>
-      <c r="I223" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I223" s="42"/>
+      <c r="J223" s="42"/>
+      <c r="K223" s="42"/>
+      <c r="L223" s="42"/>
+      <c r="M223" s="42"/>
+      <c r="N223" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="39"/>
       <c r="B224" s="40"/>
       <c r="C224" s="52"/>
@@ -22125,12 +24284,17 @@
       <c r="F224" s="42"/>
       <c r="G224" s="42"/>
       <c r="H224" s="42"/>
-      <c r="I224" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I224" s="42"/>
+      <c r="J224" s="42"/>
+      <c r="K224" s="42"/>
+      <c r="L224" s="42"/>
+      <c r="M224" s="42"/>
+      <c r="N224" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="39"/>
       <c r="B225" s="40"/>
       <c r="C225" s="52"/>
@@ -22139,12 +24303,17 @@
       <c r="F225" s="42"/>
       <c r="G225" s="42"/>
       <c r="H225" s="42"/>
-      <c r="I225" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I225" s="42"/>
+      <c r="J225" s="42"/>
+      <c r="K225" s="42"/>
+      <c r="L225" s="42"/>
+      <c r="M225" s="42"/>
+      <c r="N225" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="39"/>
       <c r="B226" s="40"/>
       <c r="C226" s="52"/>
@@ -22153,12 +24322,17 @@
       <c r="F226" s="42"/>
       <c r="G226" s="42"/>
       <c r="H226" s="42"/>
-      <c r="I226" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I226" s="42"/>
+      <c r="J226" s="42"/>
+      <c r="K226" s="42"/>
+      <c r="L226" s="42"/>
+      <c r="M226" s="42"/>
+      <c r="N226" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="39"/>
       <c r="B227" s="40"/>
       <c r="C227" s="52"/>
@@ -22167,12 +24341,17 @@
       <c r="F227" s="42"/>
       <c r="G227" s="42"/>
       <c r="H227" s="42"/>
-      <c r="I227" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I227" s="42"/>
+      <c r="J227" s="42"/>
+      <c r="K227" s="42"/>
+      <c r="L227" s="42"/>
+      <c r="M227" s="42"/>
+      <c r="N227" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="39"/>
       <c r="B228" s="40"/>
       <c r="C228" s="52"/>
@@ -22181,12 +24360,17 @@
       <c r="F228" s="42"/>
       <c r="G228" s="42"/>
       <c r="H228" s="42"/>
-      <c r="I228" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I228" s="42"/>
+      <c r="J228" s="42"/>
+      <c r="K228" s="42"/>
+      <c r="L228" s="42"/>
+      <c r="M228" s="42"/>
+      <c r="N228" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="39"/>
       <c r="B229" s="40"/>
       <c r="C229" s="52"/>
@@ -22195,12 +24379,17 @@
       <c r="F229" s="42"/>
       <c r="G229" s="42"/>
       <c r="H229" s="42"/>
-      <c r="I229" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I229" s="42"/>
+      <c r="J229" s="42"/>
+      <c r="K229" s="42"/>
+      <c r="L229" s="42"/>
+      <c r="M229" s="42"/>
+      <c r="N229" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="39"/>
       <c r="B230" s="40"/>
       <c r="C230" s="52"/>
@@ -22209,12 +24398,17 @@
       <c r="F230" s="42"/>
       <c r="G230" s="42"/>
       <c r="H230" s="42"/>
-      <c r="I230" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I230" s="42"/>
+      <c r="J230" s="42"/>
+      <c r="K230" s="42"/>
+      <c r="L230" s="42"/>
+      <c r="M230" s="42"/>
+      <c r="N230" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="39"/>
       <c r="B231" s="40"/>
       <c r="C231" s="52"/>
@@ -22223,12 +24417,17 @@
       <c r="F231" s="42"/>
       <c r="G231" s="42"/>
       <c r="H231" s="42"/>
-      <c r="I231" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I231" s="42"/>
+      <c r="J231" s="42"/>
+      <c r="K231" s="42"/>
+      <c r="L231" s="42"/>
+      <c r="M231" s="42"/>
+      <c r="N231" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="39"/>
       <c r="B232" s="40"/>
       <c r="C232" s="52"/>
@@ -22237,8 +24436,13 @@
       <c r="F232" s="42"/>
       <c r="G232" s="42"/>
       <c r="H232" s="42"/>
-      <c r="I232" s="52" t="str">
-        <f t="shared" si="4"/>
+      <c r="I232" s="42"/>
+      <c r="J232" s="42"/>
+      <c r="K232" s="42"/>
+      <c r="L232" s="42"/>
+      <c r="M232" s="42"/>
+      <c r="N232" s="52" t="str">
+        <f t="shared" si="10"/>
         <v>(,'','','Saturday-01-jj','Saturday-01-jj',,,),</v>
       </c>
     </row>
@@ -22246,4 +24450,24 @@
   <autoFilter ref="A2:H179"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="13" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="52" t="s">
+        <v>747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>